--- a/biology/Botanique/Kibatalia/Kibatalia.xlsx
+++ b/biology/Botanique/Kibatalia/Kibatalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kibatalia est un genre de plantes à fleurs de la famille des Apocynaceae, décrit pour la première fois en 1826. Ce sont des arbres et des arbrisseaux.
-Initialement appelé Hasseltia, il est renommé en Kibatalia. Kibatalia est originaire de Chine et d'Asie du Sud-Est[2],[3].
+Initialement appelé Hasseltia, il est renommé en Kibatalia. Kibatalia est originaire de Chine et d'Asie du Sud-Est,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Kibatalia comporte les espèces suivantes[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Kibatalia comporte les espèces suivantes
 Kibatalia arborea (Blume) G.Don – Thaïlande, Philippines, Malaisie, Bornéo, Sumatra, Java, Sulawesi
 Kibatalia blancoi (Rolfe ex Stapf) Merr. – Philippines
 Kibatalia borneensis (Stapf) Merr. – Sarawak
@@ -530,7 +544,7 @@
 Kibatalia stenopetala Merr. – Luzon, Dinagat, Mindanao
 Kibatalia villosa Rudjiman – Malaisie, Bornéo
 Kibatalia wigmani (Koord.) Merr. – Sulawesi
-Espèces anciennement incluses[2]
+Espèces anciennement incluses
 Kibatalia africana (Benth.) Merr. =Funtumia africana (Benth.) Stapf
 Kibatalia elastica (Preuss) Merr. = Funtumia elastica (Preuss) Stapf
 Kibatalia latifolia (Stapf) Merr. = Funtumia africana (Benth.) Stapf
@@ -563,9 +577,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 août 2018)[4], World Checklist of Selected Plant Families (WCSP)  (7 août 2018)[5] et The Plant List            (7 août 2018)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 août 2018), World Checklist of Selected Plant Families (WCSP)  (7 août 2018) et The Plant List            (7 août 2018) :
 Kibatalia arborea (Blume) G.Don (1837)
 Kibatalia blancoi (Rolfe ex Stapf) Merr. (1920 publ. 1921)
 Kibatalia borneensis (Stapf) Merr. (1920 publ. 1921)
@@ -581,7 +597,7 @@
 Kibatalia stenopetala Merr. (1920 publ. 1921)
 Kibatalia villosa Rudjiman (1986 publ. 1987)
 Kibatalia wigmanii (Koord.) Merr. (1920 publ. 1921)
-Selon Tropicos                                           (7 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Kibatalia africana (Benth.) Merr.
 Kibatalia anceps (Dunn &amp; R. H. Williams) Woodson
 Kibatalia arborea G. Don
